--- a/#AdPlacementPointsConfig.xlsx
+++ b/#AdPlacementPointsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,9 @@
     <t>IsEnabled</t>
   </si>
   <si>
+    <t>#nouse</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -86,10 +89,73 @@
     <t>General_auto</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ca-app-pub-1682293206422182/5459104950</t>
+    </r>
+  </si>
+  <si>
     <t>BattleDouble_auto</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ca-app-pub-1682293206422182/5151073067</t>
+    </r>
+  </si>
+  <si>
     <t>MergeFree_auto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="华文楷体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ca-app-pub-1682293206422182/2375353029</t>
+    </r>
+  </si>
+  <si>
+    <t>Spin_Android_auto</t>
+  </si>
+  <si>
+    <t>ca-app-pub-1682293206422182/7550703796</t>
+  </si>
+  <si>
+    <t>Task_Android_auto</t>
+  </si>
+  <si>
+    <t>ca-app-pub-1682293206422182/4718642421</t>
+  </si>
+  <si>
+    <t>ShopGold_Android_auto</t>
+  </si>
+  <si>
+    <t>ca-app-pub-1682293206422182/6666148912</t>
+  </si>
+  <si>
+    <t>Reset_Android_auto</t>
+  </si>
+  <si>
+    <t>ca-app-pub-1682293206422182/8602919250</t>
+  </si>
+  <si>
+    <t>Warehouse_Android_auto</t>
+  </si>
+  <si>
+    <t>ca-app-pub-1682293206422182/7289837585</t>
   </si>
 </sst>
 </file>
@@ -102,7 +168,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +189,17 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -269,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +361,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -483,6 +566,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,137 +702,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,8 +848,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,24 +1185,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="35.25" customWidth="1"/>
     <col min="8" max="8" width="31.375" customWidth="1"/>
     <col min="9" max="9" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,64 +1231,70 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1191,8 +1311,11 @@
       <c r="H5" s="1">
         <v>0.2</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <v>1</v>
+      <c r="I5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1200,7 +1323,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1217,7 +1340,7 @@
       <c r="H6" s="1">
         <v>0.2</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1226,7 +1349,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1243,7 +1366,7 @@
       <c r="H7" s="1">
         <v>0.2</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1252,7 +1375,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1269,7 +1392,7 @@
       <c r="H8" s="1">
         <v>0.2</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +1401,7 @@
         <v>1005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1295,16 +1418,16 @@
       <c r="H9" s="1">
         <v>0.2</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="I9" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="3">
         <v>2001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1321,8 +1444,11 @@
       <c r="H10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <v>1</v>
+      <c r="I10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1330,7 +1456,7 @@
         <v>2002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1347,7 +1473,7 @@
       <c r="H11" s="1">
         <v>0.2</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1356,7 +1482,7 @@
         <v>2003</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1373,7 +1499,7 @@
       <c r="H12" s="1">
         <v>0.2</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1508,7 @@
         <v>2004</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1399,7 +1525,7 @@
       <c r="H13" s="1">
         <v>0.2</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1408,7 +1534,7 @@
         <v>2005</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -1425,16 +1551,16 @@
       <c r="H14" s="1">
         <v>0.2</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="I14" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="3">
         <v>3001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1451,8 +1577,11 @@
       <c r="H15" s="1">
         <v>0.2</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <v>1</v>
+      <c r="I15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1460,7 +1589,7 @@
         <v>3002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1477,7 +1606,7 @@
       <c r="H16" s="1">
         <v>0.2</v>
       </c>
-      <c r="I16" s="5" t="b">
+      <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1486,7 +1615,7 @@
         <v>3003</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1503,7 +1632,7 @@
       <c r="H17" s="1">
         <v>0.2</v>
       </c>
-      <c r="I17" s="5" t="b">
+      <c r="I17" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1512,7 +1641,7 @@
         <v>3004</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -1529,7 +1658,7 @@
       <c r="H18" s="1">
         <v>0.2</v>
       </c>
-      <c r="I18" s="5" t="b">
+      <c r="I18" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1538,7 +1667,7 @@
         <v>3005</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -1555,7 +1684,672 @@
       <c r="H19" s="1">
         <v>0.2</v>
       </c>
-      <c r="I19" s="5" t="b">
+      <c r="I19" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>4001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="6">
+        <v>4002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="6">
+        <v>4003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="6">
+        <v>4004</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="6">
+        <v>4005</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>5001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="6">
+        <v>5002</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="6">
+        <v>5003</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="6">
+        <v>5004</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="6">
+        <v>5005</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="5">
+        <v>6001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
+        <v>6002</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>6003</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I32" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33">
+        <v>6004</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34">
+        <v>6005</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="7">
+        <v>7001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36">
+        <v>7002</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37">
+        <v>7003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38">
+        <v>7004</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I38" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39">
+        <v>7005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="7">
+        <v>8001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41">
+        <v>8002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I41" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42">
+        <v>8003</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I42" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43">
+        <v>8004</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I43" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44">
+        <v>8005</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I44" s="8" t="b">
         <v>1</v>
       </c>
     </row>
